--- a/eDNA 12S metab/example_output/Filtered_Percent_removed_reads.xlsx
+++ b/eDNA 12S metab/example_output/Filtered_Percent_removed_reads.xlsx
@@ -2857,22 +2857,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>09351b480c58a99c4150d54ebbc97c6c</t>
+          <t>d34820a8c9954e292ea9dbc76f4275b4</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Menidia menidia</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Atlantic silverside</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E76">
@@ -2887,22 +2887,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>d34820a8c9954e292ea9dbc76f4275b4</t>
+          <t>09351b480c58a99c4150d54ebbc97c6c</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Menidia menidia</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Atlantic silverside</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E77">
@@ -3367,22 +3367,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>680475954df3011ebba1033f1b2f2a86</t>
+          <t>4c5905c5ab539613d9c3069d0ae54188</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Prionotus carolinus</t>
+          <t>Bos taurus</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Northern sea robin</t>
+          <t>Cow</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Livestock</t>
         </is>
       </c>
       <c r="E93">
@@ -3397,22 +3397,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>4c5905c5ab539613d9c3069d0ae54188</t>
+          <t>db8615250f29272019fe417d96bf08f3</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Brevoortia tyrannus</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Cow</t>
+          <t>Atlantic menhaden</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Livestock</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E94">
@@ -3427,17 +3427,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>db8615250f29272019fe417d96bf08f3</t>
+          <t>680475954df3011ebba1033f1b2f2a86</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Brevoortia tyrannus</t>
+          <t>Prionotus carolinus</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Atlantic menhaden</t>
+          <t>Northern sea robin</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3727,17 +3727,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>f5e0ea6fe3e45da9605b758c440ae692</t>
+          <t>6d1668646cf923fa90217b0797de7a7d</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Brevoortia tyrannus</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Atlantic menhaden</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3757,17 +3757,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>6d1668646cf923fa90217b0797de7a7d</t>
+          <t>f5e0ea6fe3e45da9605b758c440ae692</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Brevoortia tyrannus</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Atlantic menhaden</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4717,22 +4717,22 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>30a623f128fb722f5fc16dbb86582d53</t>
+          <t>f556ba7929a19c44f1413abb734344c3</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Clupea harengus</t>
+          <t>Anatidae sp</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Atlantic herring</t>
+          <t>Duck geese or swan</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="E138">
@@ -4747,22 +4747,22 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>f556ba7929a19c44f1413abb734344c3</t>
+          <t>30a623f128fb722f5fc16dbb86582d53</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Anatidae sp</t>
+          <t>Clupea harengus</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Duck geese or swan</t>
+          <t>Atlantic herring</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E139">
@@ -5077,7 +5077,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0f011be680aec3ee4b12b1b139902251</t>
+          <t>94a944154183c458facbab20fe39ffa9</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5107,7 +5107,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>94a944154183c458facbab20fe39ffa9</t>
+          <t>0f011be680aec3ee4b12b1b139902251</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5737,17 +5737,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>191ed810bb884ed43fa1919f6da3d82a</t>
+          <t>148aa3594130e12c353383f68bfa0b6a</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Apeltes quadracus</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Fourspine stickleback</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5767,17 +5767,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>148aa3594130e12c353383f68bfa0b6a</t>
+          <t>191ed810bb884ed43fa1919f6da3d82a</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Apeltes quadracus</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Fourspine stickleback</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5917,17 +5917,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>5e195d1ea85055f02620fe14c0cb36db</t>
+          <t>75faeaeadeddb5b083f477013b2bfb08</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Acipenser sp</t>
+          <t>Ammodytes americanus</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Sturgeon sp</t>
+          <t>American sand lance</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5947,17 +5947,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>75faeaeadeddb5b083f477013b2bfb08</t>
+          <t>5e195d1ea85055f02620fe14c0cb36db</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ammodytes americanus</t>
+          <t>Acipenser sp</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>American sand lance</t>
+          <t>Sturgeon sp</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -6007,17 +6007,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ff405ebc8992c59ba51a99e33a12fe74</t>
+          <t>558d8758ae62abe36b1507ce2094ef7c</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Northern sand lance</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -6037,17 +6037,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>558d8758ae62abe36b1507ce2094ef7c</t>
+          <t>ff405ebc8992c59ba51a99e33a12fe74</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ammodytes dubius</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Northern sand lance</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -6097,17 +6097,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>78841da76577a3862408fc3bac0197dd</t>
+          <t>c5267bfe071a69f2920e4b685112f9cb</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Brevoortia tyrannus</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Atlantic menhaden</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6127,17 +6127,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>c5267bfe071a69f2920e4b685112f9cb</t>
+          <t>78841da76577a3862408fc3bac0197dd</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Brevoortia tyrannus</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Atlantic menhaden</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -6337,17 +6337,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>731abf4fa491ab03dd796729de5ab3eb</t>
+          <t>f2e15a0b398b704a888c965d3b49035b</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Fundulus heteroclitus</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Mummichog</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6427,17 +6427,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>f2e15a0b398b704a888c965d3b49035b</t>
+          <t>731abf4fa491ab03dd796729de5ab3eb</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Fundulus heteroclitus</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Mummichog</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -6577,7 +6577,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ae8a530856a1728978793ac56ba9092e</t>
+          <t>c1835a8b19228bca70eb11b796bd8c50</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6607,7 +6607,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>c1835a8b19228bca70eb11b796bd8c50</t>
+          <t>ae8a530856a1728978793ac56ba9092e</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6637,17 +6637,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>6b646a3c2f33a0987376c650d7bffed6</t>
+          <t>873143a37849fe27437fe73b3b4d5fae</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Fundulus heteroclitus</t>
+          <t>Apeltes quadracus</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Mummichog</t>
+          <t>Fourspine stickleback</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6667,17 +6667,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>873143a37849fe27437fe73b3b4d5fae</t>
+          <t>6b646a3c2f33a0987376c650d7bffed6</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Apeltes quadracus</t>
+          <t>Fundulus heteroclitus</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Fourspine stickleback</t>
+          <t>Mummichog</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6727,22 +6727,22 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>e468b57f39f048ada7562924022dc516</t>
+          <t>1533469db84e906a7d07208d202f0b61</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Fundulus heteroclitus</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Mummichog</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E205">
@@ -6757,22 +6757,22 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1533469db84e906a7d07208d202f0b61</t>
+          <t>e468b57f39f048ada7562924022dc516</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Fundulus heteroclitus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Mummichog</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E206">
@@ -6787,17 +6787,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>8eda94cae1befff585c94f9b67a8de7a</t>
+          <t>fff5fad17adc1f669f466579efceccbd</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ammodytes dubius</t>
+          <t>Tautoga onitis</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Northern sand lance</t>
+          <t>Tautog</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6817,17 +6817,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>fff5fad17adc1f669f466579efceccbd</t>
+          <t>8eda94cae1befff585c94f9b67a8de7a</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Tautoga onitis</t>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Tautog</t>
+          <t>Northern sand lance</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -7057,22 +7057,22 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>51750770e8d4b19707173bdbb754b4a7</t>
+          <t>bdb87097756f45aa57e56f1d9f456f26</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Larus sp</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Great black backed gull and other gulls</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="E216">
@@ -7087,17 +7087,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>6a83eb23e34e01773abb7d038e38c583</t>
+          <t>5b2278535af7a77c15966bc43d0188bd</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Brevoortia tyrannus</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Atlantic menhaden</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7147,17 +7147,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>5b2278535af7a77c15966bc43d0188bd</t>
+          <t>51750770e8d4b19707173bdbb754b4a7</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Brevoortia tyrannus</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Atlantic menhaden</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7207,22 +7207,22 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>bdb87097756f45aa57e56f1d9f456f26</t>
+          <t>6a83eb23e34e01773abb7d038e38c583</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Larus sp</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Great black backed gull and other gulls</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E221">
@@ -7267,17 +7267,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1c200425d6b46c6c564338c024264e75</t>
+          <t>df16bf5ad89bf233d6bd539e611b029a</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Brevoortia tyrannus</t>
+          <t>Cottidae sp</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Atlantic menhaden</t>
+          <t>Sculpins</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7297,17 +7297,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>df16bf5ad89bf233d6bd539e611b029a</t>
+          <t>1c200425d6b46c6c564338c024264e75</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Cottidae sp</t>
+          <t>Brevoortia tyrannus</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Sculpins</t>
+          <t>Atlantic menhaden</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7327,17 +7327,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>879319f127f42872ba2daeb54fc4135a</t>
+          <t>f937641d91db232cb7180be9e04fb9e0</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Gasterosteus aculeatus</t>
+          <t>Apeltes quadracus</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Threespined stickleback</t>
+          <t>Fourspine stickleback</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7357,17 +7357,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>f937641d91db232cb7180be9e04fb9e0</t>
+          <t>879319f127f42872ba2daeb54fc4135a</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Apeltes quadracus</t>
+          <t>Gasterosteus aculeatus</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Fourspine stickleback</t>
+          <t>Threespined stickleback</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -7387,17 +7387,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>f5ca5d430f1b145903b92fc335a4bafd</t>
+          <t>9c8a7b893d0fdaf8c1c89606cfce1c08</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Lucania parva</t>
+          <t>Enchelyopus cimbrius</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Rainwater killifish</t>
+          <t>Fourbeard rockling</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7447,17 +7447,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>977b02be79d865979e54848db649eaf0</t>
+          <t>f5ca5d430f1b145903b92fc335a4bafd</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Ammodytes dubius</t>
+          <t>Lucania parva</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Northern sand lance</t>
+          <t>Rainwater killifish</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7477,17 +7477,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>9c8a7b893d0fdaf8c1c89606cfce1c08</t>
+          <t>df263dae379496c7e522db8a7dbc01c9</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Enchelyopus cimbrius</t>
+          <t>Scomber scombrus</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Fourbeard rockling</t>
+          <t>Atlantic mackerel</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -7507,17 +7507,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>df263dae379496c7e522db8a7dbc01c9</t>
+          <t>977b02be79d865979e54848db649eaf0</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Scomber scombrus</t>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Atlantic mackerel</t>
+          <t>Northern sand lance</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -7537,17 +7537,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>c73c11c0d8b73d825099e12aaaefb637</t>
+          <t>243cc9259a8d104346a5dd517ca99499</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Fundulus heteroclitus</t>
+          <t>Ammodytes americanus</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Mummichog</t>
+          <t>American sand lance</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -7567,17 +7567,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>243cc9259a8d104346a5dd517ca99499</t>
+          <t>c73c11c0d8b73d825099e12aaaefb637</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Ammodytes americanus</t>
+          <t>Fundulus heteroclitus</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>American sand lance</t>
+          <t>Mummichog</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -7657,22 +7657,22 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>0468c507e97ebcafbbb60e0c70befa2e</t>
+          <t>b9def2b5171854db3c085e09e3d71d25</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Larus sp</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Great black backed gull and other gulls</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E236">
@@ -7687,22 +7687,22 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>b9def2b5171854db3c085e09e3d71d25</t>
+          <t>0468c507e97ebcafbbb60e0c70befa2e</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Larus sp</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Great black backed gull and other gulls</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="E237">
@@ -7897,7 +7897,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>f753730afbaa726c79bd991f32ea9778</t>
+          <t>279fde05b5aed4bfe15ab39776ff82ba</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -7927,17 +7927,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>5432a6e652c21bb79c110c1179832080</t>
+          <t>f753730afbaa726c79bd991f32ea9778</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Clupeidae sp</t>
+          <t>Brevoortia tyrannus</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Atlantic menhaden or River herrings</t>
+          <t>Atlantic menhaden</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7957,17 +7957,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>279fde05b5aed4bfe15ab39776ff82ba</t>
+          <t>5432a6e652c21bb79c110c1179832080</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Brevoortia tyrannus</t>
+          <t>Clupeidae sp</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Atlantic menhaden</t>
+          <t>Atlantic menhaden or River herrings</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -8017,22 +8017,22 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>fc6d040e1564a91e1c6d67e1e32b9022</t>
+          <t>88065f0fd14ae3b76fc1a87f8df6ef2d</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Rattus norvegicus</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Norway rat</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Mammal</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E248">
@@ -8047,22 +8047,22 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>fc3a35d36a4bef6fa8cdb7939ba7cc00</t>
+          <t>fc6d040e1564a91e1c6d67e1e32b9022</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Fundulus heteroclitus</t>
+          <t>Rattus norvegicus</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Mummichog</t>
+          <t>Norway rat</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Mammal</t>
         </is>
       </c>
       <c r="E249">
@@ -8077,17 +8077,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>4db280926cca07cc86b0e098513d9cc0</t>
+          <t>fc3a35d36a4bef6fa8cdb7939ba7cc00</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Ammodytes dubius</t>
+          <t>Fundulus heteroclitus</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Northern sand lance</t>
+          <t>Mummichog</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -8107,17 +8107,17 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>88065f0fd14ae3b76fc1a87f8df6ef2d</t>
+          <t>4db280926cca07cc86b0e098513d9cc0</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Northern sand lance</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -8317,17 +8317,17 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>14bd3bb11b9a6c641ad60556bf6141d0</t>
+          <t>8103469b2716037f1cc4ce8959ae0081</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Menidia menidia</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Atlantic silverside</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -8347,17 +8347,17 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>8103469b2716037f1cc4ce8959ae0081</t>
+          <t>14bd3bb11b9a6c641ad60556bf6141d0</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Menidia menidia</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Atlantic silverside</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -8437,22 +8437,22 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>29d8e064f48ae7211c9fba32872b36f9</t>
+          <t>9dc70d19a67c006232234c9bcbbab33f</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Apeltes quadracus</t>
+          <t>Clangula hyemalis or other Anatidae sp</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Fourspine stickleback</t>
+          <t>Long tailed duck or other ducks</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="E262">
@@ -8467,22 +8467,22 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>53cfac0a209f1dbdaf758a75c84df7d6</t>
+          <t>f4d5447013c09b659b99d47459de2042</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Fundulus heteroclitus</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Mummichog</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E263">
@@ -8497,22 +8497,22 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>9dc70d19a67c006232234c9bcbbab33f</t>
+          <t>29d8e064f48ae7211c9fba32872b36f9</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Clangula hyemalis or other Anatidae sp</t>
+          <t>Apeltes quadracus</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Long tailed duck or other ducks</t>
+          <t>Fourspine stickleback</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E264">
@@ -8527,22 +8527,22 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>f4d5447013c09b659b99d47459de2042</t>
+          <t>53cfac0a209f1dbdaf758a75c84df7d6</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Fundulus heteroclitus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Mummichog</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E265">
@@ -8587,7 +8587,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>daa05108bed6292fbd2eedef6214fdff</t>
+          <t>4c451c35f94e737edb8816211106c35d</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -8617,22 +8617,22 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>4c451c35f94e737edb8816211106c35d</t>
+          <t>b85d30e7e00112806dc705a8c3e59730</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Fundulus heteroclitus</t>
+          <t>Microtus pennsylvanicus</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Mummichog</t>
+          <t>Meadow vole</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Mammal</t>
         </is>
       </c>
       <c r="E268">
@@ -8647,22 +8647,22 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>b85d30e7e00112806dc705a8c3e59730</t>
+          <t>daa05108bed6292fbd2eedef6214fdff</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Microtus pennsylvanicus</t>
+          <t>Fundulus heteroclitus</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Meadow vole</t>
+          <t>Mummichog</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Mammal</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E269">
@@ -8677,17 +8677,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>b61cc19540f9627af5070110979ebf91</t>
+          <t>26a933bf07de2306f33cc95ec94e4b2f</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Ammodytes dubius</t>
+          <t>Pomoxis nigromaculatus</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Northern sand lance</t>
+          <t>Black crappie</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -8707,17 +8707,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>26a933bf07de2306f33cc95ec94e4b2f</t>
+          <t>b61cc19540f9627af5070110979ebf91</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Pomoxis nigromaculatus</t>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Black crappie</t>
+          <t>Northern sand lance</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -8827,22 +8827,22 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>b284be2468ec043d9372ec759f59e46e</t>
+          <t>35eb4528ffa80d6d0cb6372af9ac774c</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Anas sp</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Mallard sp</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E275">
@@ -8857,22 +8857,22 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>35eb4528ffa80d6d0cb6372af9ac774c</t>
+          <t>b284be2468ec043d9372ec759f59e46e</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Anas sp</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Mallard sp</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="E276">
@@ -8917,17 +8917,17 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>060ba27b56f58c034440c81a8ed55f51</t>
+          <t>5cc8cf140b434a5aba3a1dad41339918</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Brevoortia tyrannus</t>
+          <t>Anguilla rostrata</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Atlantic menhaden</t>
+          <t>American eel</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -8947,17 +8947,17 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>b7b35bf53a25eef31602b3f785c925e9</t>
+          <t>060ba27b56f58c034440c81a8ed55f51</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Anguilla rostrata</t>
+          <t>Brevoortia tyrannus</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>American eel</t>
+          <t>Atlantic menhaden</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -8977,7 +8977,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>5cc8cf140b434a5aba3a1dad41339918</t>
+          <t>b7b35bf53a25eef31602b3f785c925e9</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -9067,17 +9067,17 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>8dde047966dfd43b699a5ca7122e55d7</t>
+          <t>ed57094384d61f9a2dbc0c0e4ff6fb8a</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Lepomis gibbosus</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Pumpkinseed</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -9097,17 +9097,17 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>118de0da9053ad27ad0e3c1e136454d9</t>
+          <t>d8de668ed4c19b2b2ea845f3db18ae79</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Ammodytes dubius</t>
+          <t>Cottidae sp</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Northern sand lance</t>
+          <t>Sculpins</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -9127,22 +9127,22 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>34a0e7fb9fb8ee69293667a347422a20</t>
+          <t>8dde047966dfd43b699a5ca7122e55d7</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Clangula hyemalis or other Anatidae sp</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Long tailed duck or other ducks</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E285">
@@ -9157,22 +9157,22 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ed57094384d61f9a2dbc0c0e4ff6fb8a</t>
+          <t>34a0e7fb9fb8ee69293667a347422a20</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Lepomis gibbosus</t>
+          <t>Clangula hyemalis or other Anatidae sp</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Pumpkinseed</t>
+          <t>Long tailed duck or other ducks</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="E286">
@@ -9187,17 +9187,17 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>d8de668ed4c19b2b2ea845f3db18ae79</t>
+          <t>118de0da9053ad27ad0e3c1e136454d9</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Cottidae sp</t>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Sculpins</t>
+          <t>Northern sand lance</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -9247,22 +9247,22 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>1f73af8d0f7f00f65f39925298b0da2f</t>
+          <t>1dd0f1ca2adf649d8cba813ea6e43de2</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Anatidae sp</t>
+          <t>Paralichthys dentatus</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Duck geese or swan</t>
+          <t>Summer flounder</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E289">
@@ -9277,22 +9277,22 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>7bb99841c9c9b86e238cbcddc0e16567</t>
+          <t>1f73af8d0f7f00f65f39925298b0da2f</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Micropterus salmoides</t>
+          <t>Anatidae sp</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Largemouth bass</t>
+          <t>Duck geese or swan</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="E290">
@@ -9307,17 +9307,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>1dd0f1ca2adf649d8cba813ea6e43de2</t>
+          <t>46db97c5565c94eb6c74f3e91483addd</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Paralichthys dentatus</t>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Summer flounder</t>
+          <t>Northern sand lance</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -9337,17 +9337,17 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>46db97c5565c94eb6c74f3e91483addd</t>
+          <t>7bb99841c9c9b86e238cbcddc0e16567</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Ammodytes dubius</t>
+          <t>Micropterus salmoides</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Northern sand lance</t>
+          <t>Largemouth bass</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -9367,17 +9367,17 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>66042663fc706339aaada0134114fe1a</t>
+          <t>92693323f831e69117617606814ae81f</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Apeltes quadracus</t>
+          <t>Coryphaena hippurus</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Fourspine stickleback</t>
+          <t>Mahi mahi</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -9397,17 +9397,17 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>92693323f831e69117617606814ae81f</t>
+          <t>66042663fc706339aaada0134114fe1a</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Coryphaena hippurus</t>
+          <t>Apeltes quadracus</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Mahi mahi</t>
+          <t>Fourspine stickleback</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -9457,17 +9457,17 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>bbd6b723329db44753870a56d15bdbd6</t>
+          <t>13660e0e7a2cb7b18c0001f92694f4d1</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Sebastes fasciatus</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Acadian redfish</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -9487,17 +9487,17 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>0d6e610cd1019f50d693803e46db364f</t>
+          <t>bbd6b723329db44753870a56d15bdbd6</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Sebastes fasciatus</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Acadian redfish</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -9517,7 +9517,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>13660e0e7a2cb7b18c0001f92694f4d1</t>
+          <t>0d6e610cd1019f50d693803e46db364f</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -9607,17 +9607,17 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>9f4285ab8775db6b862ee4fb416f0f5d</t>
+          <t>62f946ed2315f071d9bb665d80547670</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Melospiza melodia or Spizella passerina</t>
+          <t>Larus sp</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Song sparrow or Chipping sparrow</t>
+          <t>Great black backed gull and other gulls</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -9667,22 +9667,22 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>62f946ed2315f071d9bb665d80547670</t>
+          <t>0a6108b3c6bbca90164970efbea23261</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Larus sp</t>
+          <t>Apeltes quadracus</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Great black backed gull and other gulls</t>
+          <t>Fourspine stickleback</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E303">
@@ -9697,22 +9697,22 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>0a6108b3c6bbca90164970efbea23261</t>
+          <t>9f4285ab8775db6b862ee4fb416f0f5d</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Apeltes quadracus</t>
+          <t>Melospiza melodia or Spizella passerina</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Fourspine stickleback</t>
+          <t>Song sparrow or Chipping sparrow</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="E304">
@@ -9727,22 +9727,22 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>b64d25b5d732ee0c14d7074ecd21c975</t>
+          <t>7950b1078efc076defba9c936b970ef7</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Ammodytes dubius</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Northern sand lance</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E305">
@@ -9757,22 +9757,22 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>7950b1078efc076defba9c936b970ef7</t>
+          <t>b64d25b5d732ee0c14d7074ecd21c975</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Northern sand lance</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E306">
@@ -9847,17 +9847,17 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>8ea2a9236bef33ba65acfc82e6947942</t>
+          <t>c1f17b3dc22ac71ee83288f654c93bb3</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Sciurus carolinensis</t>
+          <t>Lontra canadensis</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Gray squirrel</t>
+          <t>River otter</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -9877,22 +9877,22 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>c1f17b3dc22ac71ee83288f654c93bb3</t>
+          <t>a4e8997c6347c55b72f81e0accce0c37</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Lontra canadensis</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>River otter</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Mammal</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E310">
@@ -9907,22 +9907,22 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>a4e8997c6347c55b72f81e0accce0c37</t>
+          <t>8ea2a9236bef33ba65acfc82e6947942</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Sciurus carolinensis</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Gray squirrel</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Mammal</t>
         </is>
       </c>
       <c r="E311">
@@ -9967,17 +9967,17 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>033531a8711295f5cf38c1111629eb77</t>
+          <t>16d55edf1062cb60bf8a36a1da3212b5</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Anguilla rostrata</t>
+          <t>Esox americanus or niger</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>American eel</t>
+          <t>Grass or chain pickerel</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -10027,22 +10027,22 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>5b1dbdcc719bcfd9ea209ec7d9ecd075</t>
+          <t>c852934d5bcaffe502099acbee274eb3</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E315">
@@ -10057,17 +10057,17 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>16d55edf1062cb60bf8a36a1da3212b5</t>
+          <t>5b1dbdcc719bcfd9ea209ec7d9ecd075</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Esox americanus or niger</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Grass or chain pickerel</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -10087,22 +10087,22 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>c852934d5bcaffe502099acbee274eb3</t>
+          <t>033531a8711295f5cf38c1111629eb77</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Anguilla rostrata</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>American eel</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E317">
@@ -10207,22 +10207,22 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>fb3bb0a4483dcfbc39e8b7ccf8196749</t>
+          <t>9ed3306f1d1dfb81749820128e325abc</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Clupeidae sp</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Atlantic menhaden or River herrings</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E321">
@@ -10237,22 +10237,22 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>3eec774eb417710716b3fd10292e20ea</t>
+          <t>fb3bb0a4483dcfbc39e8b7ccf8196749</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Anguilla rostrata</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>American eel</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E322">
@@ -10267,22 +10267,22 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>76f10f715ca6c4b6d87716609d3811ea</t>
+          <t>4547ef287eb0d8ef64f1fae46e17b8f6</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Fundulus heteroclitus</t>
+          <t>Ondatra zibethicus</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Mummichog</t>
+          <t>Muskrat</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Mammal</t>
         </is>
       </c>
       <c r="E323">
@@ -10297,17 +10297,17 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>9ed3306f1d1dfb81749820128e325abc</t>
+          <t>76f10f715ca6c4b6d87716609d3811ea</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Clupeidae sp</t>
+          <t>Fundulus heteroclitus</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Atlantic menhaden or River herrings</t>
+          <t>Mummichog</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -10327,22 +10327,22 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>4547ef287eb0d8ef64f1fae46e17b8f6</t>
+          <t>3eec774eb417710716b3fd10292e20ea</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Ondatra zibethicus</t>
+          <t>Anguilla rostrata</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Muskrat</t>
+          <t>American eel</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Mammal</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E325">
@@ -10387,22 +10387,22 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>9f2355fd161fec0177a83045e771a239</t>
+          <t>032747b5e01bbdc74f3e3e59d9c2275f</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Decapterus punctatus</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Round scad</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E327">
@@ -10417,22 +10417,22 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>032747b5e01bbdc74f3e3e59d9c2275f</t>
+          <t>9f2355fd161fec0177a83045e771a239</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Decapterus punctatus</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Round scad</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E328">
@@ -10567,7 +10567,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>10ff9695e72ed5a3fbcbf1f1744b9f18</t>
+          <t>907d7d6fe4ea6d4bdc7997386ae2f3eb</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -10597,7 +10597,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>907d7d6fe4ea6d4bdc7997386ae2f3eb</t>
+          <t>10ff9695e72ed5a3fbcbf1f1744b9f18</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -10717,22 +10717,22 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>e90b297d4d2ea0d3c139676f261a0b27</t>
+          <t>d3b57d4cf93def7c41d4b9baced940d9</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Brevoortia tyrannus</t>
+          <t>Canis lupus</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Atlantic menhaden</t>
+          <t>Dog</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Livestock</t>
         </is>
       </c>
       <c r="E338">
@@ -10747,17 +10747,17 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>a1f66fcba0bd12eed7a60901bd8c6010</t>
+          <t>e90b297d4d2ea0d3c139676f261a0b27</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Brevoortia tyrannus</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Atlantic menhaden</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -10777,17 +10777,17 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>5cde257b7febb75f7c9848a21bfe18cd</t>
+          <t>a1f66fcba0bd12eed7a60901bd8c6010</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Fundulus heteroclitus</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Mummichog</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -10807,22 +10807,22 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>d3b57d4cf93def7c41d4b9baced940d9</t>
+          <t>5cde257b7febb75f7c9848a21bfe18cd</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t>Fundulus heteroclitus</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Dog</t>
+          <t>Mummichog</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Livestock</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E341">
@@ -10837,22 +10837,22 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>1b7bef208071964dff913b3e58cc6deb</t>
+          <t>aca1bb8ded346d0c6b61d2b5925a536c</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Gobiosoma bosc</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Naked goby</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E342">
@@ -10867,17 +10867,17 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>aca1bb8ded346d0c6b61d2b5925a536c</t>
+          <t>e7f90ff8c7b97da66ce6d940d857e8e4</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Gobiosoma bosc</t>
+          <t>Trachurus lathami</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Naked goby</t>
+          <t>Rough scad</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -10897,22 +10897,22 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>60fb36f888cbf7e4639c1bb98f0adc57</t>
+          <t>1b7bef208071964dff913b3e58cc6deb</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Menidia menidia</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Atlantic silverside</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E344">
@@ -10927,17 +10927,17 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>e7f90ff8c7b97da66ce6d940d857e8e4</t>
+          <t>60fb36f888cbf7e4639c1bb98f0adc57</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Trachurus lathami</t>
+          <t>Menidia menidia</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Rough scad</t>
+          <t>Atlantic silverside</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -10957,22 +10957,22 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>bcf13bc540e00c02358754d8a1b40a9c</t>
+          <t>7fef2f8e6a8bee56528216dfc05f0d81</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Fundulus heteroclitus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Mummichog</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E346">
@@ -10987,22 +10987,22 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>7fef2f8e6a8bee56528216dfc05f0d81</t>
+          <t>bcf13bc540e00c02358754d8a1b40a9c</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Fundulus heteroclitus</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Mummichog</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E347">
@@ -11017,22 +11017,22 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>0a8b15612d598036ad8233b836e36005</t>
+          <t>b77ccfdda9f1f29ece504297394b4c47</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Syngnathus fuscus</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Northern pipefish</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E348">
@@ -11047,17 +11047,17 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>079e672358ebe3e2d09131fd0d303753</t>
+          <t>0a8b15612d598036ad8233b836e36005</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Brevoortia tyrannus</t>
+          <t>Syngnathus fuscus</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Atlantic menhaden</t>
+          <t>Northern pipefish</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -11077,22 +11077,22 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>e8d06f06f68d7f48f92f796681a4ab26</t>
+          <t>079e672358ebe3e2d09131fd0d303753</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Brevoortia tyrannus</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Atlantic menhaden</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E350">
@@ -11107,7 +11107,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>b77ccfdda9f1f29ece504297394b4c47</t>
+          <t>e8d06f06f68d7f48f92f796681a4ab26</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -11137,22 +11137,22 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>35a8484c22fbf1df676003af6ec52a29</t>
+          <t>8e508158367d9e1ea2c16e8ec22a64dc</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Aythya sp</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Duck sp</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="E352">
@@ -11167,22 +11167,22 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>8e508158367d9e1ea2c16e8ec22a64dc</t>
+          <t>35a8484c22fbf1df676003af6ec52a29</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Aythya sp</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Duck sp</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E353">
@@ -11257,22 +11257,22 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>cc23248fc9f0058810041c6090c99461</t>
+          <t>b45f5a79f080475521114b63aa9bd7d1</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Thunnus sp</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Tuna sp</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E356">
@@ -11287,22 +11287,22 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>b45f5a79f080475521114b63aa9bd7d1</t>
+          <t>cc23248fc9f0058810041c6090c99461</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Thunnus sp</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Tuna sp</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E357">
@@ -11377,17 +11377,17 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>4b79490043f4e7af073542f8a2986a55</t>
+          <t>87fa60ad023e3c5c9d42fcfb40c8cf61</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Menidia beryllina</t>
+          <t>Mugil rubrioculus</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Inland silverside</t>
+          <t>Red eye mullet</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -11407,17 +11407,17 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>87fa60ad023e3c5c9d42fcfb40c8cf61</t>
+          <t>4b79490043f4e7af073542f8a2986a55</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Mugil rubrioculus</t>
+          <t>Menidia beryllina</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Red eye mullet</t>
+          <t>Inland silverside</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -11497,22 +11497,22 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>dedc23ac2bedc9a49f0d9d5f2092f08a</t>
+          <t>0dc4976a75f5949215d7cf1f1a2994f6</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Sternotherus carinatus</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Razor-backed musk turtle</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Reptile</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E364">
@@ -11527,22 +11527,22 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>02af37069efe14191838e3ded56eba42</t>
+          <t>dedc23ac2bedc9a49f0d9d5f2092f08a</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Sternotherus carinatus</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Razor-backed musk turtle</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Reptile</t>
         </is>
       </c>
       <c r="E365">
@@ -11557,22 +11557,22 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>8d3d1effd1abf08ff2562edb42d5c698</t>
+          <t>02af37069efe14191838e3ded56eba42</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Dog</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Livestock</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E366">
@@ -11587,22 +11587,22 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>0dc4976a75f5949215d7cf1f1a2994f6</t>
+          <t>8d3d1effd1abf08ff2562edb42d5c698</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Canis lupus</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Dog</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Livestock</t>
         </is>
       </c>
       <c r="E367">
@@ -11617,22 +11617,22 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>f7438a529bac4ee4e8c278122ddade23</t>
+          <t>f3ca4711d94796503be4e5bbb8a6705b</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E368">
@@ -11647,22 +11647,22 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>30bf2d2baf110c0d8539178072d8e9f8</t>
+          <t>072eff78dfd4d6ee7d89b57c63c82827</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Sylvilagus floridanus</t>
+          <t>Cottidae sp</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Eastern cottontail</t>
+          <t>Sculpins</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Mammal</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E369">
@@ -11677,22 +11677,22 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>f3ca4711d94796503be4e5bbb8a6705b</t>
+          <t>30bf2d2baf110c0d8539178072d8e9f8</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Sylvilagus floridanus</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Eastern cottontail</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Mammal</t>
         </is>
       </c>
       <c r="E370">
@@ -11707,22 +11707,22 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>072eff78dfd4d6ee7d89b57c63c82827</t>
+          <t>f7438a529bac4ee4e8c278122ddade23</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Cottidae sp</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Sculpins</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E371">
@@ -11737,17 +11737,17 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>5106d82ce8cef20c3be75529d50bfb6e</t>
+          <t>7fd998ccd15be48518b7d1c11f4fefb4</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Enchelyopus cimbrius</t>
+          <t>Apeltes quadracus</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Fourbeard rockling</t>
+          <t>Fourspine stickleback</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -11767,17 +11767,17 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>7fd998ccd15be48518b7d1c11f4fefb4</t>
+          <t>5106d82ce8cef20c3be75529d50bfb6e</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Apeltes quadracus</t>
+          <t>Enchelyopus cimbrius</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Fourspine stickleback</t>
+          <t>Fourbeard rockling</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -11797,17 +11797,17 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>a4a495dca8d3677dc8e9fb34a25824f2</t>
+          <t>a9fb819691652b5457d9b664612cd8b4</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Myrophis punctatus</t>
+          <t>Scomber scombrus</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Speckled worm-eel</t>
+          <t>Atlantic mackerel</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -11827,17 +11827,17 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>a9fb819691652b5457d9b664612cd8b4</t>
+          <t>a4a495dca8d3677dc8e9fb34a25824f2</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Scomber scombrus</t>
+          <t>Myrophis punctatus</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Atlantic mackerel</t>
+          <t>Speckled worm-eel</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -12007,22 +12007,22 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>9ac6b96a8fec0b3eef1cf71fa803eeb2</t>
+          <t>798cab8e6a1a556a317f78cfa6bab8ac</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Balaenoptera physalus</t>
+          <t>Felis catus</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Fin whale</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Marine Mammal</t>
+          <t>Livestock</t>
         </is>
       </c>
       <c r="E381">
@@ -12037,22 +12037,22 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>798cab8e6a1a556a317f78cfa6bab8ac</t>
+          <t>9ac6b96a8fec0b3eef1cf71fa803eeb2</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Balaenoptera physalus</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Fin whale</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Livestock</t>
+          <t>Marine Mammal</t>
         </is>
       </c>
       <c r="E382">
@@ -12127,22 +12127,22 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ac2e1a9dfb899519fddd499ec1d43012</t>
+          <t>c3fc0601758785a42422d73338a27546</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Cottidae sp</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Sculpins</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E385">
@@ -12157,22 +12157,22 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>c3fc0601758785a42422d73338a27546</t>
+          <t>ac2e1a9dfb899519fddd499ec1d43012</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Cottidae sp</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Sculpins</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E386">
@@ -12187,22 +12187,22 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>41714252fc55bbced79f657eb2b8805a</t>
+          <t>3b578403acdc73dd077d282c96f9541f</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Passer domesticus</t>
+          <t>Ophidion marginatum</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>House sparrow</t>
+          <t>Striped cusk-eel</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E387">
@@ -12217,17 +12217,17 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>3b578403acdc73dd077d282c96f9541f</t>
+          <t>95f961cce4e376499928398de7ffeeef</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Ophidion marginatum</t>
+          <t>Morone saxatilis</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Striped cusk-eel</t>
+          <t>Striped bass</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -12247,22 +12247,22 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>95f961cce4e376499928398de7ffeeef</t>
+          <t>41714252fc55bbced79f657eb2b8805a</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Morone saxatilis</t>
+          <t>Passer domesticus</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Striped bass</t>
+          <t>House sparrow</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="E389">
@@ -12277,17 +12277,17 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>5346fdde8cbc692f0a18533cf74028ab</t>
+          <t>c6fb6ec7b54604e09c4516277c4d4f8b</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Sphyraena borealis</t>
+          <t>Prionotus evolans</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Northern sennet</t>
+          <t>Striped sea robin</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -12337,17 +12337,17 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>c6fb6ec7b54604e09c4516277c4d4f8b</t>
+          <t>5346fdde8cbc692f0a18533cf74028ab</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Prionotus evolans</t>
+          <t>Sphyraena borealis</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Striped sea robin</t>
+          <t>Northern sennet</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -12367,22 +12367,22 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>d1af29b8548fccd9f3eada2b18f0eac9</t>
+          <t>803a43fa7cb74bb51f36ab2949523bf2</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E393">
@@ -12397,22 +12397,22 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>10e87865db5802df5cb04e24fdc46188</t>
+          <t>812ed0386e2a4869a21da5634665548d</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Gavia immer</t>
+          <t>Caranx hippos</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Common loon</t>
+          <t>Crevalle jack</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E394">
@@ -12427,22 +12427,22 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>803a43fa7cb74bb51f36ab2949523bf2</t>
+          <t>10e87865db5802df5cb04e24fdc46188</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Gavia immer</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Common loon</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="E395">
@@ -12457,17 +12457,17 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>812ed0386e2a4869a21da5634665548d</t>
+          <t>bda7407b19e08a674953008a77085c65</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Caranx hippos</t>
+          <t>Stenotomus chrysops</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Crevalle jack</t>
+          <t>Scup</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -12487,22 +12487,22 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>bda7407b19e08a674953008a77085c65</t>
+          <t>d1af29b8548fccd9f3eada2b18f0eac9</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Stenotomus chrysops</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Scup</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E397">
@@ -12697,22 +12697,22 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>a6bf1361741b5eda21b4d05f18f04a90</t>
+          <t>2d0506c060ee125f6608b52f22e598b1</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E404">
@@ -12727,22 +12727,22 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2d0506c060ee125f6608b52f22e598b1</t>
+          <t>a6bf1361741b5eda21b4d05f18f04a90</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E405">
@@ -12757,22 +12757,22 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>f6b3a673a06591a2d5a8936584e64754</t>
+          <t>d3fd621ceebbbfd380273b3865c1ede9</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Tautogolabrus adspersus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Cunner</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E406">
@@ -12787,22 +12787,22 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>d3fd621ceebbbfd380273b3865c1ede9</t>
+          <t>037bd6992d173dfbcd22d76af622fa5b</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Malaclemys terrapin</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Diamondback terrapin</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Reptile</t>
         </is>
       </c>
       <c r="E407">
@@ -12817,17 +12817,17 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>08bd987bd944513cc896ab3b3c3eed38</t>
+          <t>75fedd0fa34e3ac2514601e68b613736</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Hippoglossina oblonga</t>
+          <t>Strongylura marina</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Fourspot flounder</t>
+          <t>Atlantic needlefish</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -12847,17 +12847,17 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>315d581f4713557627422264e7726cbb</t>
+          <t>f6b3a673a06591a2d5a8936584e64754</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Ammodytes dubius</t>
+          <t>Tautogolabrus adspersus</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Northern sand lance</t>
+          <t>Cunner</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -12877,22 +12877,22 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>9e218ddde05826daea9943de26124674</t>
+          <t>315d581f4713557627422264e7726cbb</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Sturnus vulgaris</t>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Common starling</t>
+          <t>Northern sand lance</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E410">
@@ -12907,17 +12907,17 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>75fedd0fa34e3ac2514601e68b613736</t>
+          <t>08bd987bd944513cc896ab3b3c3eed38</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Strongylura marina</t>
+          <t>Hippoglossina oblonga</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Atlantic needlefish</t>
+          <t>Fourspot flounder</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -12937,22 +12937,22 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>037bd6992d173dfbcd22d76af622fa5b</t>
+          <t>9e218ddde05826daea9943de26124674</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Malaclemys terrapin</t>
+          <t>Sturnus vulgaris</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Diamondback terrapin</t>
+          <t>Common starling</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Reptile</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="E412">
@@ -12967,22 +12967,22 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>29ae99676d91135240ab43f0184c5909</t>
+          <t>ced5f183dc83bf9a3831984cefa3b3a1</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E413">
@@ -12997,22 +12997,22 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ced5f183dc83bf9a3831984cefa3b3a1</t>
+          <t>d964add43fe0c3212cbe19a066dc2a13</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E414">
@@ -13027,22 +13027,22 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>d964add43fe0c3212cbe19a066dc2a13</t>
+          <t>956d5064b9d6c222e19d75e231925e18</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E415">
@@ -13087,22 +13087,22 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>956d5064b9d6c222e19d75e231925e18</t>
+          <t>29ae99676d91135240ab43f0184c5909</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E417">
@@ -13147,22 +13147,22 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>df6846357baa6a9fecd66b4a1ba513a8</t>
+          <t>39c09623e77e6cb1f69a264089e6256c</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t>Blarina brevicauda</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Dog</t>
+          <t>Northern short tailed shrew</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Livestock</t>
+          <t>Mammal</t>
         </is>
       </c>
       <c r="E419">
@@ -13177,22 +13177,22 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>39c09623e77e6cb1f69a264089e6256c</t>
+          <t>df6846357baa6a9fecd66b4a1ba513a8</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Blarina brevicauda</t>
+          <t>Canis lupus</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Northern short tailed shrew</t>
+          <t>Dog</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Mammal</t>
+          <t>Livestock</t>
         </is>
       </c>
       <c r="E420">

--- a/eDNA 12S metab/example_output/Filtered_Percent_removed_reads.xlsx
+++ b/eDNA 12S metab/example_output/Filtered_Percent_removed_reads.xlsx
@@ -2317,22 +2317,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>407f08a29007a8a153222d82ef47d408</t>
+          <t>1b650324aafac0e6e6f0c473eccff258</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Menidia menidia</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Atlantic silverside</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E58">
@@ -2347,22 +2347,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1b650324aafac0e6e6f0c473eccff258</t>
+          <t>407f08a29007a8a153222d82ef47d408</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Menidia menidia</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Atlantic silverside</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E59">
@@ -2857,22 +2857,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>d34820a8c9954e292ea9dbc76f4275b4</t>
+          <t>09351b480c58a99c4150d54ebbc97c6c</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Menidia menidia</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Atlantic silverside</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E76">
@@ -2887,22 +2887,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>09351b480c58a99c4150d54ebbc97c6c</t>
+          <t>d34820a8c9954e292ea9dbc76f4275b4</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Menidia menidia</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Atlantic silverside</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E77">
@@ -3367,22 +3367,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>4c5905c5ab539613d9c3069d0ae54188</t>
+          <t>680475954df3011ebba1033f1b2f2a86</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Prionotus carolinus</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Cow</t>
+          <t>Northern sea robin</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Livestock</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E93">
@@ -3397,22 +3397,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>db8615250f29272019fe417d96bf08f3</t>
+          <t>4c5905c5ab539613d9c3069d0ae54188</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Brevoortia tyrannus</t>
+          <t>Bos taurus</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Atlantic menhaden</t>
+          <t>Cow</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Livestock</t>
         </is>
       </c>
       <c r="E94">
@@ -3427,17 +3427,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>680475954df3011ebba1033f1b2f2a86</t>
+          <t>db8615250f29272019fe417d96bf08f3</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Prionotus carolinus</t>
+          <t>Brevoortia tyrannus</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Northern sea robin</t>
+          <t>Atlantic menhaden</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3727,17 +3727,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>6d1668646cf923fa90217b0797de7a7d</t>
+          <t>f5e0ea6fe3e45da9605b758c440ae692</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Brevoortia tyrannus</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Atlantic menhaden</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3757,17 +3757,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>f5e0ea6fe3e45da9605b758c440ae692</t>
+          <t>6d1668646cf923fa90217b0797de7a7d</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Brevoortia tyrannus</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Atlantic menhaden</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3967,17 +3967,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>f524c4b860dec1e6b994c28dd8e4b75e</t>
+          <t>5e733a21f67e541f28ed4bf4fe025044</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Ammodytes dubius</t>
+          <t>Paralichthys dentatus</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Northern sand lance</t>
+          <t>Summer flounder</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3997,17 +3997,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>5e733a21f67e541f28ed4bf4fe025044</t>
+          <t>f524c4b860dec1e6b994c28dd8e4b75e</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Paralichthys dentatus</t>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Summer flounder</t>
+          <t>Northern sand lance</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4897,17 +4897,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>0df37a1b74088f0e7410a1b78cada881</t>
+          <t>9db3dc01519672b43908456a37b27b4d</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Engraulis eurystole</t>
+          <t>Fundulus heteroclitus</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Silver anchovy</t>
+          <t>Mummichog</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4927,17 +4927,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>9db3dc01519672b43908456a37b27b4d</t>
+          <t>0df37a1b74088f0e7410a1b78cada881</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Fundulus heteroclitus</t>
+          <t>Engraulis eurystole</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Mummichog</t>
+          <t>Silver anchovy</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -5077,7 +5077,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>94a944154183c458facbab20fe39ffa9</t>
+          <t>0f011be680aec3ee4b12b1b139902251</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5107,7 +5107,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>0f011be680aec3ee4b12b1b139902251</t>
+          <t>94a944154183c458facbab20fe39ffa9</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5737,17 +5737,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>148aa3594130e12c353383f68bfa0b6a</t>
+          <t>191ed810bb884ed43fa1919f6da3d82a</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Apeltes quadracus</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Fourspine stickleback</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5767,17 +5767,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>191ed810bb884ed43fa1919f6da3d82a</t>
+          <t>148aa3594130e12c353383f68bfa0b6a</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Apeltes quadracus</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Fourspine stickleback</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5797,17 +5797,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ed00c11476e9a07d3441cb0a1073d3ab</t>
+          <t>c73cefb2b4ac8de08ae0c68341cbb28f</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Etropus microstomus</t>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Smallmouth flounder</t>
+          <t>Northern sand lance</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5827,17 +5827,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>c73cefb2b4ac8de08ae0c68341cbb28f</t>
+          <t>ed00c11476e9a07d3441cb0a1073d3ab</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ammodytes dubius</t>
+          <t>Etropus microstomus</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Northern sand lance</t>
+          <t>Smallmouth flounder</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -6007,17 +6007,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>558d8758ae62abe36b1507ce2094ef7c</t>
+          <t>ff405ebc8992c59ba51a99e33a12fe74</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ammodytes dubius</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Northern sand lance</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -6037,17 +6037,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ff405ebc8992c59ba51a99e33a12fe74</t>
+          <t>558d8758ae62abe36b1507ce2094ef7c</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Northern sand lance</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -6157,17 +6157,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>86c340102750abe5f2a75f3d5501b55d</t>
+          <t>ee3c408644b66e62dde706ff463f359a</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Menidia beryllina</t>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Inland silverside</t>
+          <t>Northern sand lance</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -6187,17 +6187,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ee3c408644b66e62dde706ff463f359a</t>
+          <t>86c340102750abe5f2a75f3d5501b55d</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Ammodytes dubius</t>
+          <t>Menidia beryllina</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Northern sand lance</t>
+          <t>Inland silverside</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6277,17 +6277,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>8830d0cf4452e1cd0f9a6552b48b2b40</t>
+          <t>0ad9142dc74ab0ef2021cfff48d4194d</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Apeltes quadracus</t>
+          <t>Brevoortia tyrannus</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Fourspine stickleback</t>
+          <t>Atlantic menhaden</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6307,17 +6307,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>0ad9142dc74ab0ef2021cfff48d4194d</t>
+          <t>8830d0cf4452e1cd0f9a6552b48b2b40</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Brevoortia tyrannus</t>
+          <t>Apeltes quadracus</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Atlantic menhaden</t>
+          <t>Fourspine stickleback</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6337,17 +6337,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>f2e15a0b398b704a888c965d3b49035b</t>
+          <t>731abf4fa491ab03dd796729de5ab3eb</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Fundulus heteroclitus</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Mummichog</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6427,17 +6427,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>731abf4fa491ab03dd796729de5ab3eb</t>
+          <t>f2e15a0b398b704a888c965d3b49035b</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Fundulus heteroclitus</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Mummichog</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -6727,22 +6727,22 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1533469db84e906a7d07208d202f0b61</t>
+          <t>e468b57f39f048ada7562924022dc516</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Fundulus heteroclitus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Mummichog</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E205">
@@ -6757,22 +6757,22 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>e468b57f39f048ada7562924022dc516</t>
+          <t>1533469db84e906a7d07208d202f0b61</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Fundulus heteroclitus</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Mummichog</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E206">
@@ -7057,22 +7057,22 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>bdb87097756f45aa57e56f1d9f456f26</t>
+          <t>5b2278535af7a77c15966bc43d0188bd</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Larus sp</t>
+          <t>Brevoortia tyrannus</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Great black backed gull and other gulls</t>
+          <t>Atlantic menhaden</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E216">
@@ -7087,17 +7087,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>5b2278535af7a77c15966bc43d0188bd</t>
+          <t>6a83eb23e34e01773abb7d038e38c583</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Brevoortia tyrannus</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Atlantic menhaden</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7117,22 +7117,22 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>cb17be39fabe38eb2368ba0635321393</t>
+          <t>bdb87097756f45aa57e56f1d9f456f26</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Tautoga onitis</t>
+          <t>Larus sp</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Tautog</t>
+          <t>Great black backed gull and other gulls</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="E218">
@@ -7177,22 +7177,22 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>c0b18824ab60460cd31eed51f737f882</t>
+          <t>cb17be39fabe38eb2368ba0635321393</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Tautoga onitis</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Tautog</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E220">
@@ -7207,22 +7207,22 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>6a83eb23e34e01773abb7d038e38c583</t>
+          <t>c0b18824ab60460cd31eed51f737f882</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E221">
@@ -7327,17 +7327,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>f937641d91db232cb7180be9e04fb9e0</t>
+          <t>879319f127f42872ba2daeb54fc4135a</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Apeltes quadracus</t>
+          <t>Gasterosteus aculeatus</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Fourspine stickleback</t>
+          <t>Threespined stickleback</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7357,17 +7357,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>879319f127f42872ba2daeb54fc4135a</t>
+          <t>f937641d91db232cb7180be9e04fb9e0</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Gasterosteus aculeatus</t>
+          <t>Apeltes quadracus</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Threespined stickleback</t>
+          <t>Fourspine stickleback</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -7387,17 +7387,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>9c8a7b893d0fdaf8c1c89606cfce1c08</t>
+          <t>977b02be79d865979e54848db649eaf0</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Enchelyopus cimbrius</t>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Fourbeard rockling</t>
+          <t>Northern sand lance</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7417,17 +7417,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>4450a6fa10b56881617cff33c5585aa8</t>
+          <t>df263dae379496c7e522db8a7dbc01c9</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Fundulus heteroclitus</t>
+          <t>Scomber scombrus</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Mummichog</t>
+          <t>Atlantic mackerel</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7447,17 +7447,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>f5ca5d430f1b145903b92fc335a4bafd</t>
+          <t>4450a6fa10b56881617cff33c5585aa8</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Lucania parva</t>
+          <t>Fundulus heteroclitus</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Rainwater killifish</t>
+          <t>Mummichog</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7477,17 +7477,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>df263dae379496c7e522db8a7dbc01c9</t>
+          <t>f5ca5d430f1b145903b92fc335a4bafd</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Scomber scombrus</t>
+          <t>Lucania parva</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Atlantic mackerel</t>
+          <t>Rainwater killifish</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -7507,17 +7507,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>977b02be79d865979e54848db649eaf0</t>
+          <t>9c8a7b893d0fdaf8c1c89606cfce1c08</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Ammodytes dubius</t>
+          <t>Enchelyopus cimbrius</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Northern sand lance</t>
+          <t>Fourbeard rockling</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -7537,17 +7537,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>243cc9259a8d104346a5dd517ca99499</t>
+          <t>c73c11c0d8b73d825099e12aaaefb637</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Ammodytes americanus</t>
+          <t>Fundulus heteroclitus</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>American sand lance</t>
+          <t>Mummichog</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -7567,17 +7567,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>c73c11c0d8b73d825099e12aaaefb637</t>
+          <t>c972de9c10572043855aaca4a4da68f4</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Fundulus heteroclitus</t>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Mummichog</t>
+          <t>Northern sand lance</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -7597,17 +7597,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>c972de9c10572043855aaca4a4da68f4</t>
+          <t>243cc9259a8d104346a5dd517ca99499</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Ammodytes dubius</t>
+          <t>Ammodytes americanus</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Northern sand lance</t>
+          <t>American sand lance</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -7897,7 +7897,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>279fde05b5aed4bfe15ab39776ff82ba</t>
+          <t>f753730afbaa726c79bd991f32ea9778</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -7927,17 +7927,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>f753730afbaa726c79bd991f32ea9778</t>
+          <t>5432a6e652c21bb79c110c1179832080</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Brevoortia tyrannus</t>
+          <t>Clupeidae sp</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Atlantic menhaden</t>
+          <t>Atlantic menhaden or River herrings</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7957,17 +7957,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>5432a6e652c21bb79c110c1179832080</t>
+          <t>279fde05b5aed4bfe15ab39776ff82ba</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Clupeidae sp</t>
+          <t>Brevoortia tyrannus</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Atlantic menhaden or River herrings</t>
+          <t>Atlantic menhaden</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -8017,17 +8017,17 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>88065f0fd14ae3b76fc1a87f8df6ef2d</t>
+          <t>4db280926cca07cc86b0e098513d9cc0</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Northern sand lance</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -8047,22 +8047,22 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>fc6d040e1564a91e1c6d67e1e32b9022</t>
+          <t>88065f0fd14ae3b76fc1a87f8df6ef2d</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Rattus norvegicus</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Norway rat</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Mammal</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E249">
@@ -8107,22 +8107,22 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>4db280926cca07cc86b0e098513d9cc0</t>
+          <t>fc6d040e1564a91e1c6d67e1e32b9022</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Ammodytes dubius</t>
+          <t>Rattus norvegicus</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Northern sand lance</t>
+          <t>Norway rat</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Mammal</t>
         </is>
       </c>
       <c r="E251">
@@ -8317,17 +8317,17 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>8103469b2716037f1cc4ce8959ae0081</t>
+          <t>14bd3bb11b9a6c641ad60556bf6141d0</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Menidia menidia</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Atlantic silverside</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -8347,17 +8347,17 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>14bd3bb11b9a6c641ad60556bf6141d0</t>
+          <t>8103469b2716037f1cc4ce8959ae0081</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Menidia menidia</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Atlantic silverside</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -8437,22 +8437,22 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>9dc70d19a67c006232234c9bcbbab33f</t>
+          <t>f4d5447013c09b659b99d47459de2042</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Clangula hyemalis or other Anatidae sp</t>
+          <t>Fundulus heteroclitus</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Long tailed duck or other ducks</t>
+          <t>Mummichog</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E262">
@@ -8467,17 +8467,17 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>f4d5447013c09b659b99d47459de2042</t>
+          <t>29d8e064f48ae7211c9fba32872b36f9</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Fundulus heteroclitus</t>
+          <t>Apeltes quadracus</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Mummichog</t>
+          <t>Fourspine stickleback</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -8497,22 +8497,22 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>29d8e064f48ae7211c9fba32872b36f9</t>
+          <t>53cfac0a209f1dbdaf758a75c84df7d6</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Apeltes quadracus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Fourspine stickleback</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E264">
@@ -8527,22 +8527,22 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>53cfac0a209f1dbdaf758a75c84df7d6</t>
+          <t>9dc70d19a67c006232234c9bcbbab33f</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Clangula hyemalis or other Anatidae sp</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Long tailed duck or other ducks</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="E265">
@@ -8587,7 +8587,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>4c451c35f94e737edb8816211106c35d</t>
+          <t>daa05108bed6292fbd2eedef6214fdff</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -8647,7 +8647,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>daa05108bed6292fbd2eedef6214fdff</t>
+          <t>4c451c35f94e737edb8816211106c35d</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -8677,17 +8677,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>26a933bf07de2306f33cc95ec94e4b2f</t>
+          <t>b61cc19540f9627af5070110979ebf91</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Pomoxis nigromaculatus</t>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Black crappie</t>
+          <t>Northern sand lance</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -8707,17 +8707,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>b61cc19540f9627af5070110979ebf91</t>
+          <t>26a933bf07de2306f33cc95ec94e4b2f</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Ammodytes dubius</t>
+          <t>Pomoxis nigromaculatus</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Northern sand lance</t>
+          <t>Black crappie</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -8767,17 +8767,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>1be2860881962b4dd3a0a7c6db14ca80</t>
+          <t>93b36a6e82074114f7c4d90b6172dba2</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Fundulus heteroclitus</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Mummichog</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -8797,17 +8797,17 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>93b36a6e82074114f7c4d90b6172dba2</t>
+          <t>1be2860881962b4dd3a0a7c6db14ca80</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Fundulus heteroclitus</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Mummichog</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -8917,7 +8917,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>5cc8cf140b434a5aba3a1dad41339918</t>
+          <t>b7b35bf53a25eef31602b3f785c925e9</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -8977,7 +8977,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>b7b35bf53a25eef31602b3f785c925e9</t>
+          <t>5cc8cf140b434a5aba3a1dad41339918</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -9067,17 +9067,17 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ed57094384d61f9a2dbc0c0e4ff6fb8a</t>
+          <t>29df87a23b45339e281dc7b390d16860</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Lepomis gibbosus</t>
+          <t>Apeltes quadracus</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Pumpkinseed</t>
+          <t>Fourspine stickleback</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -9097,17 +9097,17 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>d8de668ed4c19b2b2ea845f3db18ae79</t>
+          <t>8dde047966dfd43b699a5ca7122e55d7</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Cottidae sp</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Sculpins</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -9127,17 +9127,17 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>8dde047966dfd43b699a5ca7122e55d7</t>
+          <t>118de0da9053ad27ad0e3c1e136454d9</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Northern sand lance</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -9187,17 +9187,17 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>118de0da9053ad27ad0e3c1e136454d9</t>
+          <t>ed57094384d61f9a2dbc0c0e4ff6fb8a</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Ammodytes dubius</t>
+          <t>Lepomis gibbosus</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Northern sand lance</t>
+          <t>Pumpkinseed</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -9217,17 +9217,17 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>29df87a23b45339e281dc7b390d16860</t>
+          <t>d8de668ed4c19b2b2ea845f3db18ae79</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Apeltes quadracus</t>
+          <t>Cottidae sp</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Fourspine stickleback</t>
+          <t>Sculpins</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -9247,17 +9247,17 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>1dd0f1ca2adf649d8cba813ea6e43de2</t>
+          <t>7bb99841c9c9b86e238cbcddc0e16567</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Paralichthys dentatus</t>
+          <t>Micropterus salmoides</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Summer flounder</t>
+          <t>Largemouth bass</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -9337,17 +9337,17 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>7bb99841c9c9b86e238cbcddc0e16567</t>
+          <t>1dd0f1ca2adf649d8cba813ea6e43de2</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Micropterus salmoides</t>
+          <t>Paralichthys dentatus</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Largemouth bass</t>
+          <t>Summer flounder</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -9367,17 +9367,17 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>92693323f831e69117617606814ae81f</t>
+          <t>50bddde558bebcd7fa8dbf6542ea44fe</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Coryphaena hippurus</t>
+          <t>Fundulus heteroclitus</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Mahi mahi</t>
+          <t>Mummichog</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -9427,17 +9427,17 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>50bddde558bebcd7fa8dbf6542ea44fe</t>
+          <t>92693323f831e69117617606814ae81f</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Fundulus heteroclitus</t>
+          <t>Coryphaena hippurus</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Mummichog</t>
+          <t>Mahi mahi</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -9487,17 +9487,17 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>bbd6b723329db44753870a56d15bdbd6</t>
+          <t>0d6e610cd1019f50d693803e46db364f</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Sebastes fasciatus</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Acadian redfish</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -9517,17 +9517,17 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>0d6e610cd1019f50d693803e46db364f</t>
+          <t>bbd6b723329db44753870a56d15bdbd6</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Sebastes fasciatus</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Acadian redfish</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -9667,22 +9667,22 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>0a6108b3c6bbca90164970efbea23261</t>
+          <t>9f4285ab8775db6b862ee4fb416f0f5d</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Apeltes quadracus</t>
+          <t>Melospiza melodia or Spizella passerina</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Fourspine stickleback</t>
+          <t>Song sparrow or Chipping sparrow</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="E303">
@@ -9697,22 +9697,22 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>9f4285ab8775db6b862ee4fb416f0f5d</t>
+          <t>0a6108b3c6bbca90164970efbea23261</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Melospiza melodia or Spizella passerina</t>
+          <t>Apeltes quadracus</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Song sparrow or Chipping sparrow</t>
+          <t>Fourspine stickleback</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E304">
@@ -9727,22 +9727,22 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>7950b1078efc076defba9c936b970ef7</t>
+          <t>901fc1f68af659cc3f6678c6a7396845</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Brevoortia tyrannus</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Atlantic menhaden</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E305">
@@ -9787,22 +9787,22 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>901fc1f68af659cc3f6678c6a7396845</t>
+          <t>5d4b77f374dcda6b5f48e88cc2b9664b</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Brevoortia tyrannus</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Atlantic menhaden</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E307">
@@ -9817,22 +9817,22 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>5d4b77f374dcda6b5f48e88cc2b9664b</t>
+          <t>7950b1078efc076defba9c936b970ef7</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E308">
@@ -9847,17 +9847,17 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>c1f17b3dc22ac71ee83288f654c93bb3</t>
+          <t>8ea2a9236bef33ba65acfc82e6947942</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Lontra canadensis</t>
+          <t>Sciurus carolinensis</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>River otter</t>
+          <t>Gray squirrel</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -9877,22 +9877,22 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>a4e8997c6347c55b72f81e0accce0c37</t>
+          <t>c1f17b3dc22ac71ee83288f654c93bb3</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Lontra canadensis</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>River otter</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Mammal</t>
         </is>
       </c>
       <c r="E310">
@@ -9907,22 +9907,22 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>8ea2a9236bef33ba65acfc82e6947942</t>
+          <t>a4e8997c6347c55b72f81e0accce0c37</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Sciurus carolinensis</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Gray squirrel</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Mammal</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E311">
@@ -9967,17 +9967,17 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>16d55edf1062cb60bf8a36a1da3212b5</t>
+          <t>7eef5797ad87b51600785f22606c70de</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Esox americanus or niger</t>
+          <t>Brevoortia tyrannus</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Grass or chain pickerel</t>
+          <t>Atlantic menhaden</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -9997,17 +9997,17 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>7eef5797ad87b51600785f22606c70de</t>
+          <t>033531a8711295f5cf38c1111629eb77</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Brevoortia tyrannus</t>
+          <t>Anguilla rostrata</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Atlantic menhaden</t>
+          <t>American eel</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -10057,17 +10057,17 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>5b1dbdcc719bcfd9ea209ec7d9ecd075</t>
+          <t>16d55edf1062cb60bf8a36a1da3212b5</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Esox americanus or niger</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Grass or chain pickerel</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -10087,17 +10087,17 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>033531a8711295f5cf38c1111629eb77</t>
+          <t>5b1dbdcc719bcfd9ea209ec7d9ecd075</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Anguilla rostrata</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>American eel</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -10147,22 +10147,22 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>bfab25a003878187c8038ee55fdb7a53</t>
+          <t>d1de955bd9480b3f0c70f78caec5a443</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Gavia immer</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Common loon</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E319">
@@ -10177,22 +10177,22 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>d1de955bd9480b3f0c70f78caec5a443</t>
+          <t>bfab25a003878187c8038ee55fdb7a53</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Gavia immer</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Common loon</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="E320">
@@ -10207,22 +10207,22 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>9ed3306f1d1dfb81749820128e325abc</t>
+          <t>fb3bb0a4483dcfbc39e8b7ccf8196749</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Clupeidae sp</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Atlantic menhaden or River herrings</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E321">
@@ -10237,22 +10237,22 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>fb3bb0a4483dcfbc39e8b7ccf8196749</t>
+          <t>9ed3306f1d1dfb81749820128e325abc</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Clupeidae sp</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Atlantic menhaden or River herrings</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E322">
@@ -10387,22 +10387,22 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>032747b5e01bbdc74f3e3e59d9c2275f</t>
+          <t>9f2355fd161fec0177a83045e771a239</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Decapterus punctatus</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Round scad</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E327">
@@ -10417,22 +10417,22 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>9f2355fd161fec0177a83045e771a239</t>
+          <t>032747b5e01bbdc74f3e3e59d9c2275f</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Decapterus punctatus</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Round scad</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E328">
@@ -10657,17 +10657,17 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>38e4381a618398d035b19d8c47e8bfa3</t>
+          <t>856a99622e9c49fc86cdcf3ddbefcfd1</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Ammodytes dubius</t>
+          <t>Gobiosoma ginsburgi</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Northern sand lance</t>
+          <t>Seaboard goby</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -10687,17 +10687,17 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>856a99622e9c49fc86cdcf3ddbefcfd1</t>
+          <t>38e4381a618398d035b19d8c47e8bfa3</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Gobiosoma ginsburgi</t>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Seaboard goby</t>
+          <t>Northern sand lance</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -10717,22 +10717,22 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>d3b57d4cf93def7c41d4b9baced940d9</t>
+          <t>a1f66fcba0bd12eed7a60901bd8c6010</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Dog</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Livestock</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E338">
@@ -10777,17 +10777,17 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>a1f66fcba0bd12eed7a60901bd8c6010</t>
+          <t>5cde257b7febb75f7c9848a21bfe18cd</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Fundulus heteroclitus</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>Mummichog</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -10807,22 +10807,22 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>5cde257b7febb75f7c9848a21bfe18cd</t>
+          <t>d3b57d4cf93def7c41d4b9baced940d9</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Fundulus heteroclitus</t>
+          <t>Canis lupus</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Mummichog</t>
+          <t>Dog</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Livestock</t>
         </is>
       </c>
       <c r="E341">
@@ -10867,17 +10867,17 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>e7f90ff8c7b97da66ce6d940d857e8e4</t>
+          <t>60fb36f888cbf7e4639c1bb98f0adc57</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Trachurus lathami</t>
+          <t>Menidia menidia</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Rough scad</t>
+          <t>Atlantic silverside</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -10927,17 +10927,17 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>60fb36f888cbf7e4639c1bb98f0adc57</t>
+          <t>e7f90ff8c7b97da66ce6d940d857e8e4</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Menidia menidia</t>
+          <t>Trachurus lathami</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Atlantic silverside</t>
+          <t>Rough scad</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -10957,22 +10957,22 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>7fef2f8e6a8bee56528216dfc05f0d81</t>
+          <t>bcf13bc540e00c02358754d8a1b40a9c</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Fundulus heteroclitus</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Mummichog</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E346">
@@ -10987,22 +10987,22 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>bcf13bc540e00c02358754d8a1b40a9c</t>
+          <t>7fef2f8e6a8bee56528216dfc05f0d81</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Fundulus heteroclitus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Mummichog</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E347">
@@ -11167,17 +11167,17 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>35a8484c22fbf1df676003af6ec52a29</t>
+          <t>1a9a786e8451eec71300762a5398f4d0</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Anguilla rostrata</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Winter or Yellowtail flounder</t>
+          <t>American eel</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -11197,22 +11197,22 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>1a9a786e8451eec71300762a5398f4d0</t>
+          <t>0e3aec812235602fac414c57ef969f1e</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Anguilla rostrata</t>
+          <t>Peromyscus leucopus</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>American eel</t>
+          <t>Deer mouse</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Mammal</t>
         </is>
       </c>
       <c r="E354">
@@ -11227,22 +11227,22 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>0e3aec812235602fac414c57ef969f1e</t>
+          <t>35a8484c22fbf1df676003af6ec52a29</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Peromyscus leucopus</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Deer mouse</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Mammal</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E355">
@@ -11257,17 +11257,17 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>b45f5a79f080475521114b63aa9bd7d1</t>
+          <t>841570d820eaab46bb7c7b3b7db8fba3</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Thunnus sp</t>
+          <t>Ctenogobius boleosoma</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Tuna sp</t>
+          <t>Darter goby</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -11287,22 +11287,22 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>cc23248fc9f0058810041c6090c99461</t>
+          <t>b45f5a79f080475521114b63aa9bd7d1</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Thunnus sp</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Tuna sp</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E357">
@@ -11317,17 +11317,17 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>841570d820eaab46bb7c7b3b7db8fba3</t>
+          <t>5d6bb2fed75f92f01e645ffc80d17d36</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Ctenogobius boleosoma</t>
+          <t>Anchoa mitchilli</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Darter goby</t>
+          <t>Bay anchovy</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -11347,22 +11347,22 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>5d6bb2fed75f92f01e645ffc80d17d36</t>
+          <t>cc23248fc9f0058810041c6090c99461</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Anchoa mitchilli</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Bay anchovy</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E359">
@@ -11497,7 +11497,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>0dc4976a75f5949215d7cf1f1a2994f6</t>
+          <t>02af37069efe14191838e3ded56eba42</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -11527,22 +11527,22 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>dedc23ac2bedc9a49f0d9d5f2092f08a</t>
+          <t>0dc4976a75f5949215d7cf1f1a2994f6</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Sternotherus carinatus</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Razor-backed musk turtle</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Reptile</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E365">
@@ -11557,22 +11557,22 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>02af37069efe14191838e3ded56eba42</t>
+          <t>dedc23ac2bedc9a49f0d9d5f2092f08a</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Sternotherus carinatus</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Razor-backed musk turtle</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Reptile</t>
         </is>
       </c>
       <c r="E366">
@@ -11617,22 +11617,22 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>f3ca4711d94796503be4e5bbb8a6705b</t>
+          <t>072eff78dfd4d6ee7d89b57c63c82827</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Cottidae sp</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Sculpins</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E368">
@@ -11647,22 +11647,22 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>072eff78dfd4d6ee7d89b57c63c82827</t>
+          <t>f3ca4711d94796503be4e5bbb8a6705b</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Cottidae sp</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Sculpins</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E369">
@@ -11857,7 +11857,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>9b1cbc97eff7dc6af2c100d85526140f</t>
+          <t>66ce172600ad7ff5f35d5dfc0bab87d3</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -11887,7 +11887,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>66ce172600ad7ff5f35d5dfc0bab87d3</t>
+          <t>9b1cbc97eff7dc6af2c100d85526140f</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -11977,22 +11977,22 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>97444d2388851f1d71afeb95125b4898</t>
+          <t>798cab8e6a1a556a317f78cfa6bab8ac</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Felis catus</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Livestock</t>
         </is>
       </c>
       <c r="E380">
@@ -12007,22 +12007,22 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>798cab8e6a1a556a317f78cfa6bab8ac</t>
+          <t>97444d2388851f1d71afeb95125b4898</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Livestock</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E381">
@@ -12187,22 +12187,22 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>3b578403acdc73dd077d282c96f9541f</t>
+          <t>41714252fc55bbced79f657eb2b8805a</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Ophidion marginatum</t>
+          <t>Passer domesticus</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Striped cusk-eel</t>
+          <t>House sparrow</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="E387">
@@ -12247,22 +12247,22 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>41714252fc55bbced79f657eb2b8805a</t>
+          <t>3b578403acdc73dd077d282c96f9541f</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Passer domesticus</t>
+          <t>Ophidion marginatum</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>House sparrow</t>
+          <t>Striped cusk-eel</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E389">
@@ -12367,22 +12367,22 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>803a43fa7cb74bb51f36ab2949523bf2</t>
+          <t>d1af29b8548fccd9f3eada2b18f0eac9</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E393">
@@ -12397,22 +12397,22 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>812ed0386e2a4869a21da5634665548d</t>
+          <t>803a43fa7cb74bb51f36ab2949523bf2</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Caranx hippos</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Crevalle jack</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E394">
@@ -12487,22 +12487,22 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>d1af29b8548fccd9f3eada2b18f0eac9</t>
+          <t>812ed0386e2a4869a21da5634665548d</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Caranx hippos</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Crevalle jack</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E397">
@@ -12697,22 +12697,22 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2d0506c060ee125f6608b52f22e598b1</t>
+          <t>a6bf1361741b5eda21b4d05f18f04a90</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E404">
@@ -12727,22 +12727,22 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>a6bf1361741b5eda21b4d05f18f04a90</t>
+          <t>2d0506c060ee125f6608b52f22e598b1</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E405">
@@ -12787,22 +12787,22 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>037bd6992d173dfbcd22d76af622fa5b</t>
+          <t>9e218ddde05826daea9943de26124674</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Malaclemys terrapin</t>
+          <t>Sturnus vulgaris</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Diamondback terrapin</t>
+          <t>Common starling</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Reptile</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="E407">
@@ -12817,17 +12817,17 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>75fedd0fa34e3ac2514601e68b613736</t>
+          <t>f6b3a673a06591a2d5a8936584e64754</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Strongylura marina</t>
+          <t>Tautogolabrus adspersus</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Atlantic needlefish</t>
+          <t>Cunner</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -12847,17 +12847,17 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>f6b3a673a06591a2d5a8936584e64754</t>
+          <t>75fedd0fa34e3ac2514601e68b613736</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Tautogolabrus adspersus</t>
+          <t>Strongylura marina</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Cunner</t>
+          <t>Atlantic needlefish</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -12907,22 +12907,22 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>08bd987bd944513cc896ab3b3c3eed38</t>
+          <t>037bd6992d173dfbcd22d76af622fa5b</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Hippoglossina oblonga</t>
+          <t>Malaclemys terrapin</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Fourspot flounder</t>
+          <t>Diamondback terrapin</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Reptile</t>
         </is>
       </c>
       <c r="E411">
@@ -12937,22 +12937,22 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>9e218ddde05826daea9943de26124674</t>
+          <t>08bd987bd944513cc896ab3b3c3eed38</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Sturnus vulgaris</t>
+          <t>Hippoglossina oblonga</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Common starling</t>
+          <t>Fourspot flounder</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E412">
@@ -12967,22 +12967,22 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ced5f183dc83bf9a3831984cefa3b3a1</t>
+          <t>0437f2363acf453d6291ceda4abba683</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Ameiurus nebulosus</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Brown bullhead</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E413">
@@ -12997,22 +12997,22 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>d964add43fe0c3212cbe19a066dc2a13</t>
+          <t>956d5064b9d6c222e19d75e231925e18</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E414">
@@ -13027,22 +13027,22 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>956d5064b9d6c222e19d75e231925e18</t>
+          <t>d964add43fe0c3212cbe19a066dc2a13</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E415">
@@ -13057,17 +13057,17 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>0437f2363acf453d6291ceda4abba683</t>
+          <t>7f400300a06f165c23af04aa4e4c790c</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Ameiurus nebulosus</t>
+          <t>Enchelyopus cimbrius</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Brown bullhead</t>
+          <t>Fourbeard rockling</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -13087,22 +13087,22 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>29ae99676d91135240ab43f0184c5909</t>
+          <t>ced5f183dc83bf9a3831984cefa3b3a1</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E417">
@@ -13117,22 +13117,22 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>7f400300a06f165c23af04aa4e4c790c</t>
+          <t>29ae99676d91135240ab43f0184c5909</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Enchelyopus cimbrius</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Fourbeard rockling</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E418">
@@ -13147,22 +13147,22 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>39c09623e77e6cb1f69a264089e6256c</t>
+          <t>df6846357baa6a9fecd66b4a1ba513a8</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Blarina brevicauda</t>
+          <t>Canis lupus</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Northern short tailed shrew</t>
+          <t>Dog</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Mammal</t>
+          <t>Livestock</t>
         </is>
       </c>
       <c r="E419">
@@ -13177,22 +13177,22 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>df6846357baa6a9fecd66b4a1ba513a8</t>
+          <t>39c09623e77e6cb1f69a264089e6256c</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t>Blarina brevicauda</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Dog</t>
+          <t>Northern short tailed shrew</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Livestock</t>
+          <t>Mammal</t>
         </is>
       </c>
       <c r="E420">
